--- a/emb2coord.xlsx
+++ b/emb2coord.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\社交网络挖掘\POI\ours\snm-poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90FF4D9-35DE-4EE7-B9B9-494662B7F4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E5C31-E229-4FCE-9FB1-47887597FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +169,26 @@
   </si>
   <si>
     <t>BK4HD1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HD512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(160,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(130,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1296,4 +1317,278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5673138E-F917-4D73-99CA-008F31016295}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>512</v>
+      </c>
+      <c r="D2" s="1">
+        <v>61858</v>
+      </c>
+      <c r="E2" s="1">
+        <v>128</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.6030000000000003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>512</v>
+      </c>
+      <c r="D3" s="1">
+        <v>61858</v>
+      </c>
+      <c r="E3" s="1">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>9.3400000000000004E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>512</v>
+      </c>
+      <c r="D5" s="1">
+        <v>128</v>
+      </c>
+      <c r="E5" s="1">
+        <v>128</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.47E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1">
+        <v>128</v>
+      </c>
+      <c r="E6" s="1">
+        <v>128</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1">
+        <v>160</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1">
+        <v>128</v>
+      </c>
+      <c r="E7" s="1">
+        <v>128</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1">
+        <v>130</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/emb2coord.xlsx
+++ b/emb2coord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\社交网络挖掘\POI\ours\snm-poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E5C31-E229-4FCE-9FB1-47887597FB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA54DDA-503B-4E85-A9DE-759BC1C28AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,26 @@
   </si>
   <si>
     <t>LR0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(140,)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(190,)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1321,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5673138E-F917-4D73-99CA-008F31016295}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1476,10 +1496,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="D6" s="1">
         <v>128</v>
@@ -1505,13 +1525,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="D7" s="1">
         <v>128</v>
@@ -1536,10 +1556,68 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J8" s="2"/>
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>512</v>
+      </c>
+      <c r="D8" s="1">
+        <v>128</v>
+      </c>
+      <c r="E8" s="1">
+        <v>128</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1">
+        <v>190</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="2"/>
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>512</v>
+      </c>
+      <c r="D9" s="1">
+        <v>128</v>
+      </c>
+      <c r="E9" s="1">
+        <v>128</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1">
+        <v>140</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J10" s="2"/>
@@ -1585,6 +1663,9 @@
     </row>
     <row r="24" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
